--- a/biology/Médecine/Leadership_narcissique/Leadership_narcissique.xlsx
+++ b/biology/Médecine/Leadership_narcissique/Leadership_narcissique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le leadership narcissique est un style de leadership dans lequel le leader est seulement intéressé par lui-même. Sa priorité est lui-même au détriment des membres du groupe. 
-Ce leader présente les caractéristiques d'un narcissique : l'arrogance, la dominance et l'hostilité. C'est un style de leadership suffisamment commun pour avoir son propre nom[1]. Le narcissisme est plus souvent décrit comme malsain et destructeur. 
-Il a été décrit que « le leadership narcissique (préférentiellement destructeur) est causé par une arrogance inébranlable, une auto-suffisance, et un besoin personnel égoïste pour le pouvoir et l'admiration[2]. »
+Ce leader présente les caractéristiques d'un narcissique : l'arrogance, la dominance et l'hostilité. C'est un style de leadership suffisamment commun pour avoir son propre nom. Le narcissisme est plus souvent décrit comme malsain et destructeur. 
+Il a été décrit que « le leadership narcissique (préférentiellement destructeur) est causé par une arrogance inébranlable, une auto-suffisance, et un besoin personnel égoïste pour le pouvoir et l'admiration. »
 </t>
         </is>
       </c>
@@ -513,16 +525,18 @@
           <t>Groupes et narcissisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude publiée dans la revue Personality and Social Psychology Bulletin suggère que quand un groupe est sans leader, un narcissique est susceptible de le prendre en charge. Les chercheurs ont trouvé que les gens qui ont un score élevé en narcissisme tendent à prendre le contrôle des groupes sans chef[3].
-Sigmund Freud considérait « le type narcissique comme étant particulièrement adapté pour agir en tant que porte-parole, endosser le rôle de leader et impressionner par leur “personnalité”[4]. » Une des raisons peut être que « le narcissisme d'une autre personne a une grande attraction pour ceux qui ont renoncé à une partie du leur propre, comme si nous les envions afin de maintenir un état de béatitude de l'esprit - une position libidinale inattaquable que nous avons nous-mêmes abandonnée depuis[5]. »
-Selon le livre Narcissism: Behind the Mask, il y a quatre types de leadership, et le style narcissique est plus répandu dans le type 3, bien qu'on puisse aussi le retrouver dans le type 1[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude publiée dans la revue Personality and Social Psychology Bulletin suggère que quand un groupe est sans leader, un narcissique est susceptible de le prendre en charge. Les chercheurs ont trouvé que les gens qui ont un score élevé en narcissisme tendent à prendre le contrôle des groupes sans chef.
+Sigmund Freud considérait « le type narcissique comme étant particulièrement adapté pour agir en tant que porte-parole, endosser le rôle de leader et impressionner par leur “personnalité”. » Une des raisons peut être que « le narcissisme d'une autre personne a une grande attraction pour ceux qui ont renoncé à une partie du leur propre, comme si nous les envions afin de maintenir un état de béatitude de l'esprit - une position libidinale inattaquable que nous avons nous-mêmes abandonnée depuis. »
+Selon le livre Narcissism: Behind the Mask, il y a quatre types de leadership, et le style narcissique est plus répandu dans le type 3, bien qu'on puisse aussi le retrouver dans le type 1 :
 autoritaire avec orientation pour la prise de décision ;
 démocratique avec orientation pour la prise de décision ;
 autoritaire avec prise de décision émotionnelle ;
 démocratique avec prise de décision émotionnelle.
-Michael Maccoby a déclaré que « les psychanalystes ne reçoivent généralement pas assez de [leaders narcissiques], en particulier sur le lieu de travail, pour écrire à leur sujet[7]. »
+Michael Maccoby a déclaré que « les psychanalystes ne reçoivent généralement pas assez de [leaders narcissiques], en particulier sur le lieu de travail, pour écrire à leur sujet. »
 </t>
         </is>
       </c>
@@ -551,10 +565,12 @@
           <t>Narcissisme d'entreprise</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Alan Downs, le narcissisme d'entreprise se produit quand un narcissique devient le directeur général (ou autre poste de leadership) d'une équipe de direction avec situation de codépendence avec le personnel. Les narcissiques professent loyauté et fidélité à l'entreprise, mais ils ne sont vraiment engagés qu'envers leurs propres ordres du jour, ainsi les décisions organisationnelles sont fondées sur l'intérêt du narcissique plutôt que sur les intérêts de l'organisation ou de la société[8]. En conséquence, "un certain type de leader charismatique peut rendre une entreprise financièrement prospère en reposant sur des principes malsains, pendant un temps. Mais... il y a toujours un juste retour des choses"[9].
-Neville Symington a déclaré que "l'une des façons de différencier une organisation au fonctionnement sain, d'une autre au fonctionnement pathologique est par sa capacité à exclure les caractères narcissiques des postes-clés."[10]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Alan Downs, le narcissisme d'entreprise se produit quand un narcissique devient le directeur général (ou autre poste de leadership) d'une équipe de direction avec situation de codépendence avec le personnel. Les narcissiques professent loyauté et fidélité à l'entreprise, mais ils ne sont vraiment engagés qu'envers leurs propres ordres du jour, ainsi les décisions organisationnelles sont fondées sur l'intérêt du narcissique plutôt que sur les intérêts de l'organisation ou de la société. En conséquence, "un certain type de leader charismatique peut rendre une entreprise financièrement prospère en reposant sur des principes malsains, pendant un temps. Mais... il y a toujours un juste retour des choses".
+Neville Symington a déclaré que "l'une des façons de différencier une organisation au fonctionnement sain, d'une autre au fonctionnement pathologique est par sa capacité à exclure les caractères narcissiques des postes-clés."
 </t>
         </is>
       </c>
@@ -583,10 +599,12 @@
           <t>Narcissiques productifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simon Crompton a distingué ce qu'il appelle "les narcissiques productifs" des "narcissiques improductifs"[11]. Michael Maccoby a reconnu que "les narcissiques productifs ont tendance à être trop sensibles à la critique, plus compétitifs, isolés, et mégalomanes", mais il a estimé que "ce qui les attire est la liberté de faire ce qu'ils veulent, par rapport au sentiment de contraintes qu'imposent les circonstances", et que, grâce à leur charisme, ils sont en mesure d'"attirer les gens dans leur vision, et de produire une cohorte de disciples qui poursuivront le rêve."[12]
-D'autres ont mis en doute le concept, considérant que "l'effondrement spectaculaire de Wall Street et le système financier en 2009 doivent nous faire réfléchir. Est-ce que l'effondrement est la cause de leaders d'entreprise qui ont développé des styles narcissiques"[13] ? Certes, on peut conclure qu'"il peut y avoir une ligne très fine entre les narcissiques qui "font le mal" sur le lieu de travail en raison de leurs traits, et ceux qui atteignent des succès extravagants grâce à eux."[14]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simon Crompton a distingué ce qu'il appelle "les narcissiques productifs" des "narcissiques improductifs". Michael Maccoby a reconnu que "les narcissiques productifs ont tendance à être trop sensibles à la critique, plus compétitifs, isolés, et mégalomanes", mais il a estimé que "ce qui les attire est la liberté de faire ce qu'ils veulent, par rapport au sentiment de contraintes qu'imposent les circonstances", et que, grâce à leur charisme, ils sont en mesure d'"attirer les gens dans leur vision, et de produire une cohorte de disciples qui poursuivront le rêve."
+D'autres ont mis en doute le concept, considérant que "l'effondrement spectaculaire de Wall Street et le système financier en 2009 doivent nous faire réfléchir. Est-ce que l'effondrement est la cause de leaders d'entreprise qui ont développé des styles narcissiques" ? Certes, on peut conclure qu'"il peut y avoir une ligne très fine entre les narcissiques qui "font le mal" sur le lieu de travail en raison de leurs traits, et ceux qui atteignent des succès extravagants grâce à eux."
 </t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Narcissisme sain et destructeur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lubit a comparé les narcissismes sain et destructeur des managers, ainsi que leur impact à long terme sur les organisations[15].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lubit a comparé les narcissismes sain et destructeur des managers, ainsi que leur impact à long terme sur les organisations.
 </t>
         </is>
       </c>
@@ -646,7 +666,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Narcissisme
